--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7030.132132806993</v>
+        <v>4448.082739086218</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>166.0395813917312</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>291.8530975056872</v>
       </c>
       <c r="H2" t="n">
-        <v>227.7161067573787</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
-        <v>57.08064812207304</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -835,7 +835,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>193.8742365098197</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>84.53159278307423</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>63.30555668469354</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>338.5504965077188</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4849707492837</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
         <v>220.7052287134384</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>88.22928314183336</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>74.72430326388677</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>215.221059982839</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>28.26278891291205</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>169.3500748159126</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>54.32649042089668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>35.88641949135589</v>
+        <v>34.45703212904686</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>28.75188085811825</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>144.7250005831139</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>180.279436674684</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>78.9105100867805</v>
+        <v>66.25628701154714</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,10 +3190,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671152</v>
       </c>
       <c r="V34" t="n">
-        <v>188.769289601541</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1051.067728171075</v>
+        <v>757.5868687040305</v>
       </c>
       <c r="C2" t="n">
-        <v>1051.067728171075</v>
+        <v>757.5868687040305</v>
       </c>
       <c r="D2" t="n">
-        <v>692.802029564325</v>
+        <v>757.5868687040305</v>
       </c>
       <c r="E2" t="n">
-        <v>692.802029564325</v>
+        <v>757.5868687040305</v>
       </c>
       <c r="F2" t="n">
-        <v>281.8161247747174</v>
+        <v>346.6009639144229</v>
       </c>
       <c r="G2" t="n">
-        <v>281.8161247747174</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073758</v>
       </c>
       <c r="K2" t="n">
-        <v>492.6555577582198</v>
+        <v>605.2571586872723</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764099</v>
+        <v>842.8799399054635</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596304</v>
+        <v>1138.950506463065</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216198</v>
+        <v>1444.42561269865</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.44097753283</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2532.33554581566</v>
+        <v>2236.241780077745</v>
       </c>
       <c r="U2" t="n">
-        <v>2532.33554581566</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2201.272658472089</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2201.272658472089</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>1827.806900211009</v>
+        <v>925.3036175845671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1437.667568235197</v>
+        <v>925.3036175845671</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669847</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615291</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884142</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686807</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.99742130093827</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369548</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496857</v>
+        <v>585.1891840496866</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025152</v>
+        <v>1041.05264543327</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798001</v>
+        <v>1304.992176928757</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362092</v>
+        <v>1590.326047362089</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113549</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
+        <v>2589.992766140985</v>
+      </c>
+      <c r="R3" t="n">
         <v>2589.992766140986</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.95470102812</v>
+        <v>1787.954701028119</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.7316637770209</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="C4" t="n">
-        <v>518.7316637770209</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="D4" t="n">
-        <v>518.7316637770209</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="E4" t="n">
-        <v>518.7316637770209</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="F4" t="n">
-        <v>371.8417162791105</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>203.5199438722344</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361118</v>
+        <v>1193.542248702565</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361118</v>
+        <v>997.7096865714338</v>
       </c>
       <c r="T4" t="n">
-        <v>1086.791150136556</v>
+        <v>997.7096865714338</v>
       </c>
       <c r="U4" t="n">
-        <v>1001.405702880925</v>
+        <v>708.5730595635358</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7212146750383</v>
+        <v>708.5730595635358</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7212146750383</v>
+        <v>708.5730595635358</v>
       </c>
       <c r="X4" t="n">
-        <v>518.7316637770209</v>
+        <v>708.5730595635358</v>
       </c>
       <c r="Y4" t="n">
-        <v>518.7316637770209</v>
+        <v>487.7804804200057</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1633.570857233913</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="C5" t="n">
-        <v>1633.570857233913</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="D5" t="n">
-        <v>1633.570857233913</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E5" t="n">
-        <v>1247.782604635669</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>836.796699846061</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477387</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2381.347406599813</v>
+        <v>2257.170226019557</v>
       </c>
       <c r="U5" t="n">
-        <v>2317.402399847598</v>
+        <v>2003.590997961804</v>
       </c>
       <c r="V5" t="n">
-        <v>1986.339512504027</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="W5" t="n">
-        <v>1633.570857233913</v>
+        <v>1672.528110618234</v>
       </c>
       <c r="X5" t="n">
-        <v>1633.570857233913</v>
+        <v>1330.557912125588</v>
       </c>
       <c r="Y5" t="n">
-        <v>1633.570857233913</v>
+        <v>1330.557912125588</v>
       </c>
     </row>
     <row r="6">
@@ -4629,40 +4629,40 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.8031573431329</v>
+        <v>301.9467472258287</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594476</v>
+        <v>788.8134803644011</v>
       </c>
       <c r="M6" t="n">
-        <v>1262.420995951773</v>
+        <v>1155.119369856727</v>
       </c>
       <c r="N6" t="n">
-        <v>1652.830557277516</v>
+        <v>1545.528931182469</v>
       </c>
       <c r="O6" t="n">
-        <v>1987.759237993047</v>
+        <v>1880.457611898</v>
       </c>
       <c r="P6" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.061870084021</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>918.8893808408909</v>
+        <v>667.4133068125736</v>
       </c>
       <c r="C7" t="n">
-        <v>918.8893808408909</v>
+        <v>498.4771238846668</v>
       </c>
       <c r="D7" t="n">
-        <v>768.7727414285552</v>
+        <v>348.360484472331</v>
       </c>
       <c r="E7" t="n">
-        <v>620.859647846162</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>200.4473908899379</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1431.24112533587</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1208.306550877852</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1208.306550877852</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V7" t="n">
-        <v>1208.306550877852</v>
+        <v>1138.478941679774</v>
       </c>
       <c r="W7" t="n">
-        <v>918.8893808408909</v>
+        <v>849.0617716428134</v>
       </c>
       <c r="X7" t="n">
-        <v>918.8893808408909</v>
+        <v>849.0617716428134</v>
       </c>
       <c r="Y7" t="n">
-        <v>918.8893808408909</v>
+        <v>849.0617716428134</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1388.399683207825</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="C8" t="n">
-        <v>1019.437166267413</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="D8" t="n">
-        <v>943.9580720614667</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>878.4676019122953</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>467.4816971226878</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104773</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135505</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2381.347406599813</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.76817854206</v>
+        <v>2212.236357502977</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.76817854206</v>
+        <v>1994.841347419301</v>
       </c>
       <c r="W8" t="n">
-        <v>1774.999523271946</v>
+        <v>1642.072692149187</v>
       </c>
       <c r="X8" t="n">
-        <v>1774.999523271946</v>
+        <v>1268.606933888107</v>
       </c>
       <c r="Y8" t="n">
-        <v>1774.999523271946</v>
+        <v>878.4676019122953</v>
       </c>
     </row>
     <row r="9">
@@ -4866,37 +4866,37 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1240.281905962038</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1630.69146728778</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1965.620148003311</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>693.2439961827737</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="C10" t="n">
-        <v>693.2439961827737</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="D10" t="n">
-        <v>543.1273567704379</v>
+        <v>514.5790851412338</v>
       </c>
       <c r="E10" t="n">
-        <v>395.2142631880448</v>
+        <v>366.6659915588407</v>
       </c>
       <c r="F10" t="n">
-        <v>248.3243156901345</v>
+        <v>219.7760440609303</v>
       </c>
       <c r="G10" t="n">
-        <v>80.34812695202382</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>80.34812695202382</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>1279.473322527612</v>
       </c>
       <c r="V10" t="n">
-        <v>1392.299181947991</v>
+        <v>1024.788834321725</v>
       </c>
       <c r="W10" t="n">
-        <v>1102.882011911031</v>
+        <v>735.3716642847639</v>
       </c>
       <c r="X10" t="n">
-        <v>874.8924610130134</v>
+        <v>735.3716642847639</v>
       </c>
       <c r="Y10" t="n">
-        <v>874.8924610130134</v>
+        <v>514.5790851412338</v>
       </c>
     </row>
     <row r="11">
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2410.714175003133</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="S16" t="n">
-        <v>2410.714175003133</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.112710026075</v>
+        <v>2412.158000621627</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5738,37 +5738,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1898.319914982233</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.354624631591</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2014.962104402028</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1725.886877746226</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1471.202389540339</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1181.785219503378</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>953.7956686053609</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.0030894618308</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.354959541324</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6479,16 +6479,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,7 +6649,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>577.8620388433919</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>408.925855915485</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V34" t="n">
-        <v>1497.70980375214</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W34" t="n">
-        <v>1208.292633715179</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>980.3030828171618</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.5105036736317</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7093,37 +7093,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>221.3431781811715</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>119.2902967703784</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7979,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>37.93451847055621</v>
+        <v>151.6735093079815</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942355</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659704</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,13 +8061,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>248.7601900310634</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>248.7601900310701</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.7639243740396</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>191.4694788103613</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>22.36271716134905</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>216.6942602717494</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>80.8813386921327</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.421048022933</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>30.48882721876579</v>
+        <v>31.91821458107483</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,16 +23890,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>119.8635921600941</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272871</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646568</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>141.4594738061303</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>37.12601365260429</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>138.4949402405078</v>
+        <v>151.1491633157411</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.5874149221289713</v>
       </c>
       <c r="V34" t="n">
-        <v>63.36835372228697</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1095137.405266619</v>
+        <v>1095137.40526662</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1095137.405266619</v>
+        <v>1095137.40526662</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1095137.40526662</v>
+        <v>1095137.405266619</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1095137.405266619</v>
+        <v>1095137.40526662</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794694</v>
+        <v>298593.7657794693</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760023</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="H2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="J2" t="n">
         <v>322858.6398760025</v>
@@ -26341,19 +26341,19 @@
         <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="O2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898953</v>
+        <v>172764.3597898935</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260479</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130884.4569042352</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>117230.9551024951</v>
+        <v>117230.9551024949</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
         <v>129066.754725248</v>
@@ -26430,34 +26430,34 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.48053169506</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="H4" t="n">
+        <v>6287.480531695062</v>
+      </c>
+      <c r="I4" t="n">
         <v>6287.480531695051</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695077</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695062</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-847665.2000954123</v>
+        <v>-847851.5934839528</v>
       </c>
       <c r="C6" t="n">
-        <v>-66895.49593093933</v>
+        <v>-66895.49593093757</v>
       </c>
       <c r="D6" t="n">
         <v>105868.8638589559</v>
       </c>
       <c r="E6" t="n">
-        <v>-285440.2382253504</v>
+        <v>-285474.9761507863</v>
       </c>
       <c r="F6" t="n">
-        <v>215448.6295204002</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="G6" t="n">
-        <v>215448.6295204004</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="H6" t="n">
-        <v>215448.6295204004</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="I6" t="n">
-        <v>215448.6295204001</v>
+        <v>215413.8915949644</v>
       </c>
       <c r="J6" t="n">
-        <v>46034.61269435247</v>
+        <v>45999.87476891666</v>
       </c>
       <c r="K6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="L6" t="n">
-        <v>215448.6295204002</v>
+        <v>215413.8915949644</v>
       </c>
       <c r="M6" t="n">
-        <v>84564.17261616517</v>
+        <v>84529.43469072931</v>
       </c>
       <c r="N6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="O6" t="n">
-        <v>215448.6295204004</v>
+        <v>215413.8915949645</v>
       </c>
       <c r="P6" t="n">
-        <v>215448.6295204003</v>
+        <v>215413.8915949645</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152237</v>
+        <v>189.725434152235</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.269109691829</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>120.434641189357</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>152.8170441071105</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.48346005197</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>6.573287861481816</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>201.7136679547447</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27622,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>187.7378790924817</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>31.1806041707502</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>82.00019858480742</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>163.9083601819946</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>279.9587383567962</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27871,7 +27871,7 @@
         <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>112.5311984872959</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>76.22787060008906</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>116.876524403793</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31285,40 +31285,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,43 +31361,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,43 +31440,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31522,40 +31522,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31598,43 +31598,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,43 +31677,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,10 +32315,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,16 +32552,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N21" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,10 +32570,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,10 +33044,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>255.6522884173734</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,31 +34199,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>150.7833302198378</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520769</v>
       </c>
       <c r="K2" t="n">
-        <v>201.3638235867116</v>
+        <v>315.1028144241378</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352465</v>
+        <v>299.0611783410121</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352465</v>
+        <v>308.5607133692773</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269015</v>
+        <v>277.8951710269026</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223249</v>
+        <v>524.1263114938085</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597324</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643746</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806359</v>
+        <v>460.4681428117001</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691778</v>
+        <v>266.6055873691787</v>
       </c>
       <c r="N3" t="n">
-        <v>536.9762207718089</v>
+        <v>288.2160307407397</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>241.2171229812708</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689357</v>
+        <v>492.5324261689364</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>276.0148132527184</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.126388037344441e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671838</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>491.7845789278509</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656114</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,19 +35100,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>647.4981915352465</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>274.3594119744994</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35337,19 +35337,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36060,7 +36060,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36200,16 +36200,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N21" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,10 +36218,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,10 +36692,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>128.8146617507067</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>23.94570355317107</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
